--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/80.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/80.xlsx
@@ -479,13 +479,13 @@
         <v>-4.738151617278501</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.87016526989571</v>
+        <v>-11.2568694355779</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5810783908634202</v>
+        <v>-0.9594328506864618</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.760821898802824</v>
+        <v>-8.318079493604174</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.740879419266748</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.49727348371155</v>
+        <v>-11.84612780187831</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.570237964110471</v>
+        <v>-0.9986835746059566</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.67925685209887</v>
+        <v>-8.223369774847127</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.67840731160843</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.9029908564738</v>
+        <v>-12.2241549541303</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5591095066950038</v>
+        <v>-0.9305250460119306</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.110880708831017</v>
+        <v>-7.693066048243013</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.524347387720067</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.49180408447759</v>
+        <v>-12.79259655891237</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.535058946374753</v>
+        <v>-0.9550207446288002</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.8703096441143</v>
+        <v>-7.394757927994284</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.275024224266013</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.90461748538005</v>
+        <v>-13.21958892379242</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6608105151695319</v>
+        <v>-1.141559875517713</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.474267483152087</v>
+        <v>-6.96502927182031</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.920621675925064</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.59083744652628</v>
+        <v>-13.8827926165429</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4405325198574908</v>
+        <v>-0.9622607881002746</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.992457646273726</v>
+        <v>-6.504847919236481</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.451969356023572</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.33843412339453</v>
+        <v>-14.60931068583596</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5929792941465492</v>
+        <v>-1.091403263331061</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.726107837261651</v>
+        <v>-6.223389592745053</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.867838966060313</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.93986833133774</v>
+        <v>-15.20499737283165</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5453887733168749</v>
+        <v>-1.03625848376171</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.39159949965555</v>
+        <v>-5.878184843717262</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.169184364951585</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.63586824270674</v>
+        <v>-15.90565814401231</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4955987456097907</v>
+        <v>-1.000581958518007</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.280380387015087</v>
+        <v>-5.772241929122015</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.37623602155829</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.12942187523413</v>
+        <v>-16.42200547578714</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5931625863863333</v>
+        <v>-1.049010386729551</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.064894174543118</v>
+        <v>-5.543872890653787</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5260529321639925</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.68808352979342</v>
+        <v>-17.00226943003528</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5372977301606882</v>
+        <v>-1.024619426535416</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.775148420352878</v>
+        <v>-5.257740612047864</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3383259171959864</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.0541835941566</v>
+        <v>-17.38868874840883</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5418669438524506</v>
+        <v>-1.011016523882863</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.229107745733009</v>
+        <v>-4.734166329104396</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.162769667961556</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.91772570499117</v>
+        <v>-18.18975439008268</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2802958253776055</v>
+        <v>-0.8030191086363605</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.783812341480222</v>
+        <v>-4.261468735003877</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.906127790422167</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.58149236676384</v>
+        <v>-18.88229793350146</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1431932300190501</v>
+        <v>-0.6672912050761863</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.655874358110875</v>
+        <v>-4.17069979940219</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.540383897785792</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.4013847399241</v>
+        <v>-19.70352572155157</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04422308516025858</v>
+        <v>-0.4784609211899712</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.29812718296071</v>
+        <v>-3.839595460534938</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.049225788174407</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.23256267813392</v>
+        <v>-20.4721093598751</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3366527614330521</v>
+        <v>-0.2284110292158451</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.079014402601582</v>
+        <v>-3.600385995313761</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.440854444280551</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.88850014280723</v>
+        <v>-21.09218700706493</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2726183082341698</v>
+        <v>-0.2740769815277856</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.928845689006984</v>
+        <v>-3.443762776418192</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.730047107364076</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.39038047994196</v>
+        <v>-21.6216921031957</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6280219611756657</v>
+        <v>0.03787331828202144</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.461149354592004</v>
+        <v>-3.031224313875403</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.940222145413089</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.84587478810846</v>
+        <v>-22.06522004656485</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8611696901811235</v>
+        <v>0.304393327231039</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.064046717099611</v>
+        <v>-2.606326717450026</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.099504837931333</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.43000097169491</v>
+        <v>-22.69413499817285</v>
       </c>
       <c r="F21" t="n">
-        <v>1.000641992354031</v>
+        <v>0.4826450304211394</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.90854943624843</v>
+        <v>-2.451955374643234</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.226914170200376</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.86419410313791</v>
+        <v>-23.15292856665546</v>
       </c>
       <c r="F22" t="n">
-        <v>1.157841272574636</v>
+        <v>0.6727190830773185</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.8338316639307</v>
+        <v>-2.37986915519669</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.34460911633043</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.24121314807109</v>
+        <v>-23.49440200937336</v>
       </c>
       <c r="F23" t="n">
-        <v>1.372725239115886</v>
+        <v>0.8501721557940736</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.550985553338049</v>
+        <v>-2.140397843918678</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.467092943925291</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.8772241278193</v>
+        <v>-24.04176500658024</v>
       </c>
       <c r="F24" t="n">
-        <v>1.573430241679547</v>
+        <v>1.050288004729857</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.607465747797256</v>
+        <v>-2.21239241724533</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.603196935004333</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.01765216809966</v>
+        <v>-24.21658652642581</v>
       </c>
       <c r="F25" t="n">
-        <v>1.790317330555581</v>
+        <v>1.265983694047293</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.719692967756532</v>
+        <v>-2.374160911157697</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.762818765165219</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.13607204730307</v>
+        <v>-24.34294034115131</v>
       </c>
       <c r="F26" t="n">
-        <v>1.87306068451529</v>
+        <v>1.343817434441355</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.774955578051457</v>
+        <v>-2.474879996919096</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.946570352749213</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.11645977764617</v>
+        <v>-24.35495907516001</v>
       </c>
       <c r="F27" t="n">
-        <v>1.825299963748673</v>
+        <v>1.353479553938549</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.88305872261559</v>
+        <v>-2.566761778262329</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.155320937854663</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.08582378899653</v>
+        <v>-24.31191158341641</v>
       </c>
       <c r="F28" t="n">
-        <v>1.838575558830183</v>
+        <v>1.378224006309411</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.877703970753323</v>
+        <v>-2.623307434235744</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.385146786827987</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.18093936914167</v>
+        <v>-24.38543795617555</v>
       </c>
       <c r="F29" t="n">
-        <v>1.998642053373126</v>
+        <v>1.514331586651995</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.02042316403098</v>
+        <v>-2.766982365620846</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.62832595498069</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.0436142046348</v>
+        <v>-24.25206666712689</v>
       </c>
       <c r="F30" t="n">
-        <v>1.979527291224206</v>
+        <v>1.474740462858616</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.239837067355467</v>
+        <v>-3.01064321380821</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.879081671609238</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.58938984984396</v>
+        <v>-23.88298155771579</v>
       </c>
       <c r="F31" t="n">
-        <v>1.728574030354001</v>
+        <v>1.277832228119056</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.242272235684028</v>
+        <v>-3.035309112362022</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.124891395511508</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.42204403492102</v>
+        <v>-23.71716754222533</v>
       </c>
       <c r="F32" t="n">
-        <v>1.827735132077234</v>
+        <v>1.360235182204879</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.596314289129984</v>
+        <v>-3.417931662911466</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.353570766009034</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.25444946624408</v>
+        <v>-23.49568505505184</v>
       </c>
       <c r="F33" t="n">
-        <v>1.684374415960334</v>
+        <v>1.242496102749237</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.690343208139261</v>
+        <v>-3.479439301661896</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.555044541079146</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.74773806936076</v>
+        <v>-22.99854413154582</v>
       </c>
       <c r="F34" t="n">
-        <v>1.520982476495592</v>
+        <v>1.089447082529459</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.787619018253285</v>
+        <v>-3.560231902498187</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.718389078643521</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.22257961777344</v>
+        <v>-22.5757020266666</v>
       </c>
       <c r="F35" t="n">
-        <v>1.531665795614441</v>
+        <v>1.074050534387589</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.805385273209508</v>
+        <v>-3.555662688806425</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.841347150260767</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.8032462500558</v>
+        <v>-22.16405384071705</v>
       </c>
       <c r="F36" t="n">
-        <v>1.419595683289266</v>
+        <v>0.9550415015562994</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.862533175113642</v>
+        <v>-3.628023846612645</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.922019654515375</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.33502622352714</v>
+        <v>-21.65417410654602</v>
       </c>
       <c r="F37" t="n">
-        <v>1.332872269265672</v>
+        <v>0.9127926402860495</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.879854291773245</v>
+        <v>-3.576571096444661</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.959969352279738</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.75281151615559</v>
+        <v>-21.14739724814849</v>
       </c>
       <c r="F38" t="n">
-        <v>1.448294011118329</v>
+        <v>0.9429965829419115</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.692451068896779</v>
+        <v>-3.40817789729438</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>6.954909093929371</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.34917581954517</v>
+        <v>-20.7497316416339</v>
       </c>
       <c r="F39" t="n">
-        <v>1.278918889254919</v>
+        <v>0.8703866713816987</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.665245263591672</v>
+        <v>-3.357379762268483</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>6.900911298476244</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.87537847200595</v>
+        <v>-20.29989320829504</v>
       </c>
       <c r="F40" t="n">
-        <v>1.315826090965745</v>
+        <v>0.8317251010900816</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.74283025023174</v>
+        <v>-3.472592027275673</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>6.800047103351191</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.27751846273853</v>
+        <v>-19.70199392211909</v>
       </c>
       <c r="F41" t="n">
-        <v>1.325619133491356</v>
+        <v>0.8729920396472022</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.614957728376602</v>
+        <v>-3.287885818784601</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>6.663138894930221</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.65940466097496</v>
+        <v>-19.07345864729351</v>
       </c>
       <c r="F42" t="n">
-        <v>1.310379692983587</v>
+        <v>0.8697320562396124</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.789465032953969</v>
+        <v>-3.384899782841791</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.506102345409247</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.11560277014102</v>
+        <v>-18.57075349507975</v>
       </c>
       <c r="F43" t="n">
-        <v>1.174259020338161</v>
+        <v>0.687605031408361</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.6733493990507</v>
+        <v>-3.307170780870464</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.34606849102869</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.74079632438809</v>
+        <v>-18.19815964850707</v>
       </c>
       <c r="F44" t="n">
-        <v>1.147197230364313</v>
+        <v>0.6695507457896208</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.590082352977322</v>
+        <v>-3.201437343120684</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.188749536371646</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.4729670851549</v>
+        <v>-17.91211901602104</v>
       </c>
       <c r="F45" t="n">
-        <v>1.17668109636388</v>
+        <v>0.7361120134369561</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.793903323617314</v>
+        <v>-3.355101701574023</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.037720128398016</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.86774920169043</v>
+        <v>-17.36780652537627</v>
       </c>
       <c r="F46" t="n">
-        <v>1.252367699091898</v>
+        <v>0.7789369360322421</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.732657530923719</v>
+        <v>-3.305730627557874</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.891230299329634</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.50026135322602</v>
+        <v>-17.05044910449283</v>
       </c>
       <c r="F47" t="n">
-        <v>1.212148144762116</v>
+        <v>0.7566407442927826</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.597597334808473</v>
+        <v>-3.204553311197015</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.740892454529053</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.10105085497611</v>
+        <v>-16.70240332574839</v>
       </c>
       <c r="F48" t="n">
-        <v>1.1994355187028</v>
+        <v>0.7286363085143305</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.612941513738976</v>
+        <v>-3.176077552516261</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.580157944126683</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.61281269740246</v>
+        <v>-16.19329603744503</v>
       </c>
       <c r="F49" t="n">
-        <v>1.150849982857155</v>
+        <v>0.649323137899154</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.515796626653369</v>
+        <v>-3.101634718558206</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.396397948814261</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.24916089367068</v>
+        <v>-15.85503020892335</v>
       </c>
       <c r="F50" t="n">
-        <v>1.008850866235794</v>
+        <v>0.4891388126306356</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.606251346986854</v>
+        <v>-3.092731952625833</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.179778559720496</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.69691446750383</v>
+        <v>-15.28377375903032</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9425121677367676</v>
+        <v>0.4340725868783357</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.665899878733758</v>
+        <v>-3.156111790682628</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.923224331619347</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.28013409884032</v>
+        <v>-14.93744307195814</v>
       </c>
       <c r="F52" t="n">
-        <v>1.033346564852663</v>
+        <v>0.5233097230475406</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.814824823558392</v>
+        <v>-3.291604032791652</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.617458369019587</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.72365885885559</v>
+        <v>-14.40639308409205</v>
       </c>
       <c r="F53" t="n">
-        <v>1.169676714343557</v>
+        <v>0.6593256572702327</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.944844483079574</v>
+        <v>-3.422946014899848</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.262161819768864</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.33881061682306</v>
+        <v>-14.04448255663821</v>
       </c>
       <c r="F54" t="n">
-        <v>1.056114079494425</v>
+        <v>0.5224718156656701</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.058276194900288</v>
+        <v>-3.563727547356928</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.852188369773231</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.84012480158171</v>
+        <v>-13.53994448202662</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8422905894833546</v>
+        <v>0.3591977069265043</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.222938087740677</v>
+        <v>-3.694414914323037</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.384973413427763</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.66026274514208</v>
+        <v>-13.39342852092486</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9295638802263005</v>
+        <v>0.4596549466310684</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.331669662841212</v>
+        <v>-3.772903269859185</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.865011105717203</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.29513151118918</v>
+        <v>-13.04294757385185</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8774957918247559</v>
+        <v>0.3740574706518634</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.462409399018688</v>
+        <v>-3.949400604468494</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.293219061293388</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.02474927290185</v>
+        <v>-12.84564657002704</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9455233973903646</v>
+        <v>0.4194615769069694</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.869697848121945</v>
+        <v>-4.339498859940564</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.680022733257199</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.58954803414004</v>
+        <v>-12.47110197033094</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8772601303736048</v>
+        <v>0.3653118123535904</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.049599181470103</v>
+        <v>-4.538449493923434</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.034547323045171</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.10455676767114</v>
+        <v>-12.00573606582179</v>
       </c>
       <c r="F60" t="n">
-        <v>0.715805851729439</v>
+        <v>0.2511862084822643</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.122889892778085</v>
+        <v>-4.653727220444831</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3643837030482129</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.07674871643531</v>
+        <v>-11.94933442517963</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7462323635336103</v>
+        <v>0.279923813219853</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.369156109230953</v>
+        <v>-4.853764515563564</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3133944160103437</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.72867675308518</v>
+        <v>-11.62552249899522</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6590376266077147</v>
+        <v>0.2099716391365106</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.712462474346694</v>
+        <v>-5.148066391142724</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9897904966461811</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.50104088357609</v>
+        <v>-11.39462664607854</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5917955592126096</v>
+        <v>0.145478955338168</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.716796026587305</v>
+        <v>-5.146704791647185</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.651382571383948</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.25328214459927</v>
+        <v>-11.19777078055035</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5088034514989082</v>
+        <v>0.1330281753356865</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.651478527709934</v>
+        <v>-5.140839439974092</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.282241188645483</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.22559192408902</v>
+        <v>-11.12373380798039</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5362187336494825</v>
+        <v>0.1258143164698954</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.639813285877955</v>
+        <v>-5.150540836379811</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.872425237929163</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.06631096771658</v>
+        <v>-10.97876273861395</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5122467271462821</v>
+        <v>0.1058747392419466</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.71349676627119</v>
+        <v>-5.228754253556282</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.405404769811183</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.95716043892511</v>
+        <v>-10.90997577948353</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3037518043917944</v>
+        <v>-0.1092448887504544</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.820919111087552</v>
+        <v>-5.272142145173762</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.869607945896971</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.94499768958514</v>
+        <v>-10.90129558269946</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2996015443909673</v>
+        <v>-0.1219182379012452</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.640546454837092</v>
+        <v>-5.124055107730999</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.256054556423928</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.91692779229248</v>
+        <v>-10.85209470862026</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2850298113281262</v>
+        <v>-0.08878161940883655</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.42457582715998</v>
+        <v>-4.885251503897916</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.555498187927624</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.87699626862522</v>
+        <v>-10.88384354301144</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.009101864314091697</v>
+        <v>-0.3945130753688237</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.23018131456603</v>
+        <v>-4.759094073715043</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.771073210014573</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.7122950988763</v>
+        <v>-10.76050095793954</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02453226168630257</v>
+        <v>-0.3601981496206597</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.252988106116317</v>
+        <v>-4.714671890173067</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.907610262820746</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.880819221055</v>
+        <v>-10.93630440049824</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08467830094119214</v>
+        <v>-0.3442386324565956</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.081714600340857</v>
+        <v>-4.593856119549618</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.975410878799217</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.06326046115445</v>
+        <v>-11.10700184494866</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0446605588322197</v>
+        <v>-0.4352694141151169</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.00816204297604</v>
+        <v>-4.506517367292464</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.988443136523322</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.4231678662735</v>
+        <v>-11.45492979296753</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.08159394514872893</v>
+        <v>-0.4650936799885689</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.996274231995753</v>
+        <v>-4.503257383884874</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.958288705484094</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.86331799550949</v>
+        <v>-11.82258784136888</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1318029265467484</v>
+        <v>-0.5421418822121269</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.803476980348495</v>
+        <v>-4.321431482018983</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.895703643319195</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.90059178169989</v>
+        <v>-11.92239046593136</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1766833406881854</v>
+        <v>-0.6352281554167992</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.566846698787137</v>
+        <v>-4.049857844173059</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.803091763748238</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.29421186663638</v>
+        <v>-12.35789282765854</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2160911722417808</v>
+        <v>-0.6729601722066537</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.375070646761534</v>
+        <v>-3.893876148116734</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.678902220591864</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.12671212743322</v>
+        <v>-13.16346222150994</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4037824257807657</v>
+        <v>-0.8575223653664661</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.270947562261287</v>
+        <v>-3.781792943488717</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.515781561671328</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.71069429568841</v>
+        <v>-13.73021491922542</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4645568955720581</v>
+        <v>-0.8803684338252781</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.236043482885245</v>
+        <v>-3.662260218543758</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.303087932728309</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.26576865926907</v>
+        <v>-14.31324134937317</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4936610847892152</v>
+        <v>-0.9229707872722547</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.900108084269396</v>
+        <v>-3.434964748908552</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.032154380444155</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.95006405189756</v>
+        <v>-14.96781721455094</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.4824802581623812</v>
+        <v>-0.9587389586358503</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.474856995667291</v>
+        <v>-3.027964330467814</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.690510794454426</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.88700161246285</v>
+        <v>-15.89100785713242</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7278692903248528</v>
+        <v>-1.162887236846885</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.324910851221003</v>
+        <v>-2.886161598389079</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.27458409448897</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6295184758285</v>
+        <v>-16.63802847267562</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8139904584177269</v>
+        <v>-1.25622226380555</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.133108614589716</v>
+        <v>-2.757699922906062</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.782753439338783</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.56648222099947</v>
+        <v>-17.56989931204116</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.9600874658285481</v>
+        <v>-1.404047455191479</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.848285566267965</v>
+        <v>-2.488129407394922</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.217410298736004</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.59997551502248</v>
+        <v>-18.59717376221435</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9842951337828996</v>
+        <v>-1.48438182542831</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.853535579707497</v>
+        <v>-2.463594431869528</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.594034479695692</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.87007290600117</v>
+        <v>-19.85042135943574</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.181779429847496</v>
+        <v>-1.656244484831648</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.565950055486142</v>
+        <v>-2.227356919393423</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.9260869475956319</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.9590775640731</v>
+        <v>-20.99929711840289</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.150082964667677</v>
+        <v>-1.613812331321614</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.777495484802752</v>
+        <v>-2.408475836905861</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2348391553526537</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.50631282160545</v>
+        <v>-22.51250548084958</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.084294142888003</v>
+        <v>-1.618682667978736</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.540996126269813</v>
+        <v>-2.231467902485725</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4551762645244488</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.78646510116658</v>
+        <v>-23.81419459858536</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.362047347675222</v>
+        <v>-1.809686274136678</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.660699051151714</v>
+        <v>-2.332173895944282</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.124034491968714</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.34450150854335</v>
+        <v>-25.38349038640601</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.321435024260188</v>
+        <v>-1.79112138870711</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.550671338069848</v>
+        <v>-2.319683839033275</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.745731650960813</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.02842040774332</v>
+        <v>-27.0383312809945</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.427862354060579</v>
+        <v>-1.895584873081243</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.703497789141316</v>
+        <v>-2.478925518497189</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.300229712635447</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.66541649355853</v>
+        <v>-28.69690348189289</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.597250568226831</v>
+        <v>-1.993737867485663</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.950680466793105</v>
+        <v>-2.642788780864233</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.770556079122963</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.48621541896875</v>
+        <v>-30.51504466982623</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.695233362694309</v>
+        <v>-2.117132821768931</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.958143079412888</v>
+        <v>-2.722298336022035</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.138689795817977</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.26386211421263</v>
+        <v>-32.25011519622881</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.579157005699565</v>
+        <v>-2.017749150897389</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.333852894061902</v>
+        <v>-3.094983828714609</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.397767839313811</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.11146098353985</v>
+        <v>-34.11413181331957</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.903387885574911</v>
+        <v>-2.321883345910685</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.406947220827258</v>
+        <v>-3.157460297875326</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>3.53627769237744</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.09494486406135</v>
+        <v>-36.07425902557142</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.132123508522707</v>
+        <v>-2.590890892399631</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.861996390697131</v>
+        <v>-3.638104919800774</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.557964822907491</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.2452115904836</v>
+        <v>-38.18727815040896</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.198632406958676</v>
+        <v>-2.671447831784771</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.010017966625686</v>
+        <v>-3.770075332445372</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.454433820122032</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.48382517648182</v>
+        <v>-40.45308444940944</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.335957571465541</v>
+        <v>-2.821223776294117</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.454043417502826</v>
+        <v>-4.1765389664696</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.251234348412255</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.61413923337327</v>
+        <v>-42.52100059095723</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.530915053081683</v>
+        <v>-3.040873341069755</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.649118729844544</v>
+        <v>-4.391108717742648</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.934342565788827</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.80911617400001</v>
+        <v>-44.6662529653911</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.676593106801569</v>
+        <v>-3.157067528790074</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.696971096731053</v>
+        <v>-4.428120657876208</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.571971422834217</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.80440931168475</v>
+        <v>-46.76814363281317</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.787275435025522</v>
+        <v>-3.280606498404602</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.202910047746715</v>
+        <v>-4.912025263209245</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.108245600239789</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.08872812690343</v>
+        <v>-49.02976039490429</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.085151509280473</v>
+        <v>-3.573782435939374</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.514860347556522</v>
+        <v>-5.252673890848116</v>
       </c>
     </row>
   </sheetData>
